--- a/summary_output.xlsx
+++ b/summary_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.4487</v>
+        <v>206.2994</v>
       </c>
       <c r="C2" t="n">
-        <v>17.316</v>
+        <v>24.668</v>
       </c>
       <c r="D2" t="n">
-        <v>5.397</v>
+        <v>8.363</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>59.51</v>
+        <v>157.95</v>
       </c>
       <c r="G2" t="n">
-        <v>127.387</v>
+        <v>254.649</v>
       </c>
       <c r="H2" t="n">
         <v>756</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3307765210660144</v>
+        <v>0.3299921582498909</v>
       </c>
       <c r="J2" t="n">
-        <v>19.16859894766377</v>
+        <v>15.4822719302343</v>
       </c>
       <c r="K2" t="n">
-        <v>-5096.06412343065</v>
+        <v>-5096.003904500346</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1248</v>
+        <v>0.1168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.881</v>
+        <v>0.882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142</v>
+        <v>0.132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.887</v>
+        <v>0.895</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.602</v>
+        <v>-1.612</v>
       </c>
       <c r="G3" t="n">
-        <v>1.851</v>
+        <v>1.845</v>
       </c>
       <c r="H3" t="n">
         <v>756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3307765210660144</v>
+        <v>0.3299921582498909</v>
       </c>
       <c r="J3" t="n">
-        <v>19.16859894766377</v>
+        <v>15.4822719302343</v>
       </c>
       <c r="K3" t="n">
-        <v>-5096.06412343065</v>
+        <v>-5096.003904500346</v>
       </c>
     </row>
     <row r="4">
@@ -566,71 +566,108 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.0063</v>
+        <v>10.9615</v>
       </c>
       <c r="C4" t="n">
-        <v>4.726</v>
+        <v>4.736</v>
       </c>
       <c r="D4" t="n">
-        <v>2.329</v>
+        <v>2.315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="F4" t="n">
-        <v>1.744</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>20.269</v>
+        <v>20.243</v>
       </c>
       <c r="H4" t="n">
         <v>756</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3307765210660144</v>
+        <v>0.3299921582498909</v>
       </c>
       <c r="J4" t="n">
-        <v>19.16859894766377</v>
+        <v>15.4822719302343</v>
       </c>
       <c r="K4" t="n">
-        <v>-5096.06412343065</v>
+        <v>-5096.003904500346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ESG_Index</t>
+          <t>ESG_Exposure</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-25.3845</v>
+        <v>-1.4356</v>
       </c>
       <c r="C5" t="n">
-        <v>4.038</v>
+        <v>0.757</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.287</v>
+        <v>-1.897</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.299</v>
+        <v>-2.919</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.47</v>
+        <v>0.047</v>
       </c>
       <c r="H5" t="n">
         <v>756</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3307765210660144</v>
+        <v>0.3299921582498909</v>
       </c>
       <c r="J5" t="n">
-        <v>19.16859894766377</v>
+        <v>15.4822719302343</v>
       </c>
       <c r="K5" t="n">
-        <v>-5096.06412343065</v>
+        <v>-5096.003904500346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ESG_Managed</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.9266</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.511</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-5.211</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.642</v>
+      </c>
+      <c r="H6" t="n">
+        <v>756</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3299921582498909</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.4822719302343</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-5096.003904500346</v>
       </c>
     </row>
   </sheetData>
